--- a/SMART ROBOT CAR VACUUM CLEANER - PIN.xlsx
+++ b/SMART ROBOT CAR VACUUM CLEANER - PIN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEDFA768-6CF8-4A67-BE11-03E73E2A61A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44209C19-F6A5-4115-998E-8202FD0ACC91}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{910AF464-B77D-4F10-90FB-43FF03675FCF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>ARDUINO UNO</t>
   </si>
@@ -51,12 +51,6 @@
     <t>IN 4</t>
   </si>
   <si>
-    <t>MOTOR DC 1 DAN 2</t>
-  </si>
-  <si>
-    <t>MOTOR DC 3 DAN 4</t>
-  </si>
-  <si>
     <t>SERVO MOTOR</t>
   </si>
   <si>
@@ -85,6 +79,18 @@
   </si>
   <si>
     <t>DINAMO</t>
+  </si>
+  <si>
+    <t>PIN 4</t>
+  </si>
+  <si>
+    <t>PIN 5</t>
+  </si>
+  <si>
+    <t>PIN 6</t>
+  </si>
+  <si>
+    <t>PIN 7</t>
   </si>
 </sst>
 </file>
@@ -135,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED9869E-1224-4859-9344-065F1C7B77A8}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,13 +489,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -496,161 +503,128 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
